--- a/Data/TrustedMessenger.xlsx
+++ b/Data/TrustedMessenger.xlsx
@@ -36,15 +36,15 @@
     <t>Who do you turn to for advice and support about your child's physical health and emotional well-being? Select all that apply.</t>
   </si>
   <si>
-    <t xml:space="preserve">▢	Pediatrician / doctor  (1) 
-▢	Childcare provider / teacher  (2) 
-▢	Home visitor  (3) 
-▢	Faith leader  (4) 
-▢	My friends / family  (5) 
-▢	Others in my town / city / community (e.g., word of mouth, acquaintances, colleagues, neighbors)  (6) 
-▢	I search online (i.e., Google)  (7) 
-▢	An online community (e.g., a blog, Facebook group)  (8) 
-▢	Not Listed (please specify)  (9) </t>
+    <t xml:space="preserve"> •  Pediatrician / doctor   
+ •  Childcare provider / teacher   
+ •  Home visitor   
+ •  Faith leader   
+ •  My friends / family   
+ •  Others in my town / city / community (e.g., word of mouth, acquaintances, colleagues, neighbors)   
+ •  I search online (i.e., Google)   
+ •  An online community (e.g., a blog, Facebook group)   
+ •  Not Listed (please specify)   </t>
   </si>
   <si>
     <t>08/02/2022-08/11/2022</t>
@@ -53,7 +53,7 @@
     <t>How often do you use the following social media platforms to look for information about parenting and child development? TikTok</t>
   </si>
   <si>
-    <t xml:space="preserve">	Never (0)	Sometimes (1)	Frequently (2)</t>
+    <t xml:space="preserve">• Never                                                  • Sometimes                                      • Frequently </t>
   </si>
   <si>
     <t>How often do you use the following social media platforms to look for information about parenting and child development? Instagram</t>
@@ -77,37 +77,37 @@
     <t>What are your favorite places to take your children in your community? Select all that apply.</t>
   </si>
   <si>
-    <t xml:space="preserve">▢	Public parks  (1) 
-▢	National / state parks  (2) 
-▢	Religious buildings (e.g., Mosque, chapel, temple, church)  (3) 
-▢	Public libraries  (4) 
-▢	Malls  (5) 
-▢	Amusement parks  (6) 
-▢	Bodies of water (e.g., lake, ocean, reservoir)  (7) 
-▢	My friends' / family's houses  (8) 
-▢	Childcare programs / school  (9) 
-▢	My children's non-school programs / classes  (10) 
-▢	Museums  (11) 
-▢	Restaurants  (12) 
-▢	Not Listed (please specify)  (13) </t>
+    <t xml:space="preserve"> •        Public parks   
+ •        National / state parks   
+ •        Religious buildings (e.g., Mosque, chapel, temple, church)   
+ •        Public libraries   
+ •        Malls   
+ •        Amusement parks   
+ •        Bodies of water (e.g., lake, ocean, reservoir)   
+ •        My friends' / family's houses   
+ •        Childcare programs / school   
+ •        My children's non-school programs / classes   
+ •        Museums   
+ •        Restaurants   
+ •        Not Listed (please specify)   </t>
   </si>
   <si>
     <t>Where are your least favorite places to take your children in your community? Select all that apply.</t>
   </si>
   <si>
-    <t xml:space="preserve">▢	Public parks  (1) 
-▢	National / state parks  (2) 
-▢	Religious buildings (e.g., Mosque, chapel, temple, church, etc.)  (3) 
-▢	Public libraries  (4) 
-▢	Malls  (5) 
-▢	Amusement parks  (6) 
-▢	Bodies of water (e.g., lake, ocean, reservoir)  (7) 
-▢	My friends' / family's houses  (8) 
-▢	Childcare programs / school  (9) 
-▢	My children's non-school programs / classes  (10) 
-▢	Museums  (11) 
-▢	Restaurants  (12) 
-▢	Not Listed (please specify)  (13) </t>
+    <t xml:space="preserve"> •	Public parks   
+ •	National / state parks   
+ •	Religious buildings (e.g., Mosque, chapel, temple, church, etc.)   
+ •	Public libraries   
+ •	Malls   
+ •	Amusement parks   
+ •	Bodies of water (e.g., lake, ocean, reservoir)   
+ •	My friends' / family's houses   
+ •	Childcare programs / school   
+ •	My children's non-school programs / classes   
+ •	Museums   
+ •	Restaurants   
+ •	Not Listed (please specify)   </t>
   </si>
   <si>
     <t>Please say more about what makes these places in your community your favorite and least favorite.</t>
@@ -493,7 +493,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="153.0" customHeight="1">
+    <row r="2" ht="196.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="153.0" customHeight="1">
+    <row r="10" ht="270.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>

--- a/Data/TrustedMessenger.xlsx
+++ b/Data/TrustedMessenger.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgxDerzmBKIL/CxRtDWiOrXNgqa5Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +113,7 @@
     <t>Please say more about what makes these places in your community your favorite and least favorite.</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
